--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Chad-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Chad-Itga2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3922333333333334</v>
+        <v>0.2722696666666667</v>
       </c>
       <c r="H2">
-        <v>1.1767</v>
+        <v>0.816809</v>
       </c>
       <c r="I2">
-        <v>0.02566137522290962</v>
+        <v>0.01577089893809228</v>
       </c>
       <c r="J2">
-        <v>0.02566137522290962</v>
+        <v>0.01577089893809228</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N2">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O2">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P2">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q2">
-        <v>0.4873486092222223</v>
+        <v>0.07122338512955556</v>
       </c>
       <c r="R2">
-        <v>4.386137483000001</v>
+        <v>0.641010466166</v>
       </c>
       <c r="S2">
-        <v>0.008397013281648368</v>
+        <v>0.001299461125620412</v>
       </c>
       <c r="T2">
-        <v>0.008397013281648368</v>
+        <v>0.001299461125620412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3922333333333334</v>
+        <v>0.2722696666666667</v>
       </c>
       <c r="H3">
-        <v>1.1767</v>
+        <v>0.816809</v>
       </c>
       <c r="I3">
-        <v>0.02566137522290962</v>
+        <v>0.01577089893809228</v>
       </c>
       <c r="J3">
-        <v>0.02566137522290962</v>
+        <v>0.01577089893809228</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.744414</v>
       </c>
       <c r="N3">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O3">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P3">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q3">
-        <v>0.6842173179333334</v>
+        <v>0.4749510183086668</v>
       </c>
       <c r="R3">
-        <v>6.157955861400001</v>
+        <v>4.274559164778</v>
       </c>
       <c r="S3">
-        <v>0.01178905981775405</v>
+        <v>0.008665417738054544</v>
       </c>
       <c r="T3">
-        <v>0.01178905981775405</v>
+        <v>0.008665417738054544</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3922333333333334</v>
+        <v>0.2722696666666667</v>
       </c>
       <c r="H4">
-        <v>1.1767</v>
+        <v>0.816809</v>
       </c>
       <c r="I4">
-        <v>0.02566137522290962</v>
+        <v>0.01577089893809228</v>
       </c>
       <c r="J4">
-        <v>0.02566137522290962</v>
+        <v>0.01577089893809228</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N4">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O4">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P4">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q4">
-        <v>0.3177773793444445</v>
+        <v>0.3182276065647778</v>
       </c>
       <c r="R4">
-        <v>2.8599964141</v>
+        <v>2.864048459083</v>
       </c>
       <c r="S4">
-        <v>0.005475302123507195</v>
+        <v>0.005806020074417322</v>
       </c>
       <c r="T4">
-        <v>0.005475302123507195</v>
+        <v>0.005806020074417322</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>41.695506</v>
       </c>
       <c r="I5">
-        <v>0.9092921089275765</v>
+        <v>0.8050543166133334</v>
       </c>
       <c r="J5">
-        <v>0.9092921089275765</v>
+        <v>0.8050543166133333</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N5">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O5">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P5">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q5">
-        <v>17.26884240666</v>
+        <v>3.635727669516</v>
       </c>
       <c r="R5">
-        <v>155.41958165994</v>
+        <v>32.721549025644</v>
       </c>
       <c r="S5">
-        <v>0.2975420393193245</v>
+        <v>0.06633336454430919</v>
       </c>
       <c r="T5">
-        <v>0.2975420393193245</v>
+        <v>0.06633336454430919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>41.695506</v>
       </c>
       <c r="I6">
-        <v>0.9092921089275765</v>
+        <v>0.8050543166133334</v>
       </c>
       <c r="J6">
-        <v>0.9092921089275765</v>
+        <v>0.8050543166133333</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>1.744414</v>
       </c>
       <c r="N6">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O6">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P6">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q6">
         <v>24.244741467828</v>
@@ -818,10 +818,10 @@
         <v>218.202673210452</v>
       </c>
       <c r="S6">
-        <v>0.4177367335476528</v>
+        <v>0.4423420619625392</v>
       </c>
       <c r="T6">
-        <v>0.4177367335476528</v>
+        <v>0.4423420619625392</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>41.695506</v>
       </c>
       <c r="I7">
-        <v>0.9092921089275765</v>
+        <v>0.8050543166133334</v>
       </c>
       <c r="J7">
-        <v>0.9092921089275765</v>
+        <v>0.8050543166133333</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N7">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O7">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P7">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q7">
-        <v>11.260209592182</v>
+        <v>16.244508910758</v>
       </c>
       <c r="R7">
-        <v>101.341886329638</v>
+        <v>146.200580196822</v>
       </c>
       <c r="S7">
-        <v>0.1940133360605991</v>
+        <v>0.296378890106485</v>
       </c>
       <c r="T7">
-        <v>0.1940133360605991</v>
+        <v>0.296378890106485</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9942340000000002</v>
+        <v>3.093283333333334</v>
       </c>
       <c r="H8">
-        <v>2.982702000000001</v>
+        <v>9.279850000000001</v>
       </c>
       <c r="I8">
-        <v>0.06504651584951388</v>
+        <v>0.1791747844485745</v>
       </c>
       <c r="J8">
-        <v>0.06504651584951388</v>
+        <v>0.1791747844485744</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.242496666666667</v>
+        <v>0.2615913333333333</v>
       </c>
       <c r="N8">
-        <v>3.72749</v>
+        <v>0.784774</v>
       </c>
       <c r="O8">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481725</v>
       </c>
       <c r="P8">
-        <v>0.3272238221337333</v>
+        <v>0.08239613548481727</v>
       </c>
       <c r="Q8">
-        <v>1.235332430886667</v>
+        <v>0.8091761115444446</v>
       </c>
       <c r="R8">
-        <v>11.11799187798</v>
+        <v>7.282585003900001</v>
       </c>
       <c r="S8">
-        <v>0.02128476953276039</v>
+        <v>0.01476330981488767</v>
       </c>
       <c r="T8">
-        <v>0.02128476953276039</v>
+        <v>0.01476330981488767</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9942340000000002</v>
+        <v>3.093283333333334</v>
       </c>
       <c r="H9">
-        <v>2.982702000000001</v>
+        <v>9.279850000000001</v>
       </c>
       <c r="I9">
-        <v>0.06504651584951388</v>
+        <v>0.1791747844485745</v>
       </c>
       <c r="J9">
-        <v>0.06504651584951388</v>
+        <v>0.1791747844485744</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>1.744414</v>
       </c>
       <c r="N9">
-        <v>5.233242</v>
+        <v>5.233242000000001</v>
       </c>
       <c r="O9">
-        <v>0.4594087306446919</v>
+        <v>0.5494561706387266</v>
       </c>
       <c r="P9">
-        <v>0.4594087306446918</v>
+        <v>0.5494561706387268</v>
       </c>
       <c r="Q9">
-        <v>1.734355708876</v>
+        <v>5.395966752633335</v>
       </c>
       <c r="R9">
-        <v>15.609201379884</v>
+        <v>48.56370077370001</v>
       </c>
       <c r="S9">
-        <v>0.029882937279285</v>
+        <v>0.09844869093813299</v>
       </c>
       <c r="T9">
-        <v>0.029882937279285</v>
+        <v>0.09844869093813299</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9942340000000002</v>
+        <v>3.093283333333334</v>
       </c>
       <c r="H10">
-        <v>2.982702000000001</v>
+        <v>9.279850000000001</v>
       </c>
       <c r="I10">
-        <v>0.06504651584951388</v>
+        <v>0.1791747844485745</v>
       </c>
       <c r="J10">
-        <v>0.06504651584951388</v>
+        <v>0.1791747844485744</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8101743333333333</v>
+        <v>1.168795666666667</v>
       </c>
       <c r="N10">
-        <v>2.430523</v>
+        <v>3.506387</v>
       </c>
       <c r="O10">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="P10">
-        <v>0.2133674472215748</v>
+        <v>0.3681476938764561</v>
       </c>
       <c r="Q10">
-        <v>0.8055028681273335</v>
+        <v>3.615416155772223</v>
       </c>
       <c r="R10">
-        <v>7.249525813146001</v>
+        <v>32.53874540195001</v>
       </c>
       <c r="S10">
-        <v>0.01387880903746848</v>
+        <v>0.06596278369555379</v>
       </c>
       <c r="T10">
-        <v>0.01387880903746848</v>
+        <v>0.06596278369555379</v>
       </c>
     </row>
   </sheetData>
